--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielmurphy/new/documents/Project-Management/Tools/RoadmapUpdate/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mantid-development\documents\documents\Project-Management\Tools\RoadmapUpdate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2F2860-C1DA-0C47-B0AA-F6592DA414C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39880" yWindow="4940" windowWidth="19480" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39876" yWindow="4944" windowWidth="19476" windowHeight="23496"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$C$1:$C$30</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
   <si>
     <t>Title</t>
   </si>
@@ -152,112 +151,115 @@
     <t>Rob Applin</t>
   </si>
   <si>
+    <t>No Assigned</t>
+  </si>
+  <si>
+    <t>Harrietbrown</t>
+  </si>
+  <si>
+    <t>Harriet Brown</t>
+  </si>
+  <si>
+    <t>DanielMurphy22</t>
+  </si>
+  <si>
+    <t>DannyHindson</t>
+  </si>
+  <si>
+    <t>RichardWaiteSTFC</t>
+  </si>
+  <si>
+    <t>StephenSmith25</t>
+  </si>
+  <si>
+    <t>DavidFair</t>
+  </si>
+  <si>
+    <t>David Fair</t>
+  </si>
+  <si>
+    <t>Stephen Smith</t>
+  </si>
+  <si>
+    <t>Daniel Murphy</t>
+  </si>
+  <si>
+    <t>Richard Waite</t>
+  </si>
+  <si>
+    <t>Danny Hindson</t>
+  </si>
+  <si>
+    <t>Anthony Lim</t>
+  </si>
+  <si>
+    <t>tolu28-coder</t>
+  </si>
+  <si>
+    <t>Toluwalase Agoro</t>
+  </si>
+  <si>
+    <t>joseph-torsney</t>
+  </si>
+  <si>
+    <t>Joseph Torsney</t>
+  </si>
+  <si>
+    <t>Manual Testing Live Data ORNL</t>
+  </si>
+  <si>
+    <t>Manual Testing SCD event data reduction</t>
+  </si>
+  <si>
+    <t>Manual Testing DGSReduction</t>
+  </si>
+  <si>
+    <t>Manual Testing QECoverage</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL HFIR diffraction &amp; 4Circle</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL SANS</t>
+  </si>
+  <si>
+    <t>Manual Testing DynamicPDF</t>
+  </si>
+  <si>
+    <t>Manual Testing Step scan analysis</t>
+  </si>
+  <si>
+    <t>Manual Testing ORNL Powder Diffraction</t>
+  </si>
+  <si>
+    <t>Sarah Foxley</t>
+  </si>
+  <si>
+    <t>sf1919</t>
+  </si>
+  <si>
+    <t>thomashampson</t>
+  </si>
+  <si>
+    <t>Tom Hampson</t>
+  </si>
+  <si>
+    <t>Silke Schomann</t>
+  </si>
+  <si>
+    <t>SilkeSchomann</t>
+  </si>
+  <si>
     <t>mganeva</t>
   </si>
   <si>
-    <t>No Assigned</t>
-  </si>
-  <si>
-    <t>Harrietbrown</t>
-  </si>
-  <si>
-    <t>Harriet Brown</t>
-  </si>
-  <si>
-    <t>DanielMurphy22</t>
-  </si>
-  <si>
-    <t>DannyHindson</t>
-  </si>
-  <si>
-    <t>RichardWaiteSTFC</t>
-  </si>
-  <si>
-    <t>StephenSmith25</t>
-  </si>
-  <si>
-    <t>DavidFair</t>
-  </si>
-  <si>
-    <t>David Fair</t>
-  </si>
-  <si>
-    <t>Stephen Smith</t>
-  </si>
-  <si>
-    <t>Daniel Murphy</t>
-  </si>
-  <si>
-    <t>Richard Waite</t>
-  </si>
-  <si>
-    <t>Danny Hindson</t>
-  </si>
-  <si>
-    <t>Anthony Lim</t>
-  </si>
-  <si>
-    <t>tolu28-coder</t>
-  </si>
-  <si>
-    <t>Toluwalase Agoro</t>
-  </si>
-  <si>
-    <t>joseph-torsney</t>
-  </si>
-  <si>
-    <t>Joseph Torsney</t>
-  </si>
-  <si>
-    <t>Manual Testing Live Data ORNL</t>
-  </si>
-  <si>
-    <t>Manual Testing SCD event data reduction</t>
-  </si>
-  <si>
-    <t>Manual Testing DGSReduction</t>
-  </si>
-  <si>
-    <t>Manual Testing QECoverage</t>
-  </si>
-  <si>
-    <t>Manual Testing ORNL HFIR diffraction &amp; 4Circle</t>
-  </si>
-  <si>
-    <t>Manual Testing ORNL SANS</t>
-  </si>
-  <si>
-    <t>Manual Testing DynamicPDF</t>
-  </si>
-  <si>
-    <t>Manual Testing Step scan analysis</t>
-  </si>
-  <si>
-    <t>Manual Testing ORNL Powder Diffraction</t>
-  </si>
-  <si>
-    <t>Sarah Foxley</t>
-  </si>
-  <si>
-    <t>sf1919</t>
-  </si>
-  <si>
-    <t>thomashampson</t>
-  </si>
-  <si>
-    <t>Tom Hampson</t>
-  </si>
-  <si>
-    <t>Silke Schomann</t>
-  </si>
-  <si>
-    <t>SilkeSchomann</t>
+    <t>Marina Ganeva</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -745,7 +747,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -757,7 +759,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -897,23 +898,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -949,23 +933,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1141,22 +1108,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="46" style="1" customWidth="1"/>
     <col min="2" max="2" width="72.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.1640625" style="1"/>
+    <col min="3" max="3" width="20.77734375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1170,79 +1137,79 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>4</v>
@@ -1251,85 +1218,91 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="6"/>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
       <c r="C13" s="4"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="6"/>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
       <c r="C14" s="4"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="6"/>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5"/>
       <c r="C15" s="4"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C30" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6B0240A5-85EE-294D-8AC1-4397218B8785}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>assignees!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C30</xm:sqref>
+          <xm:sqref>C11:C30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>assignees!$A$2:$A$28</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C10</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1338,20 +1311,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1359,10 +1332,10 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1374,19 +1347,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <f>COUNTIF(issues!$C:$C,assignees!A3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1398,19 +1371,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
       </c>
       <c r="C5">
         <f>COUNTIF(issues!$C:$C,assignees!A5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -1431,10 +1404,10 @@
       </c>
       <c r="C7">
         <f>COUNTIF(issues!$C:$C,assignees!A7)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -1446,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1458,19 +1431,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
         <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
       </c>
       <c r="C10">
         <f>COUNTIF(issues!$C:$C,assignees!A10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1482,79 +1455,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
         <v>53</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
       </c>
       <c r="C12">
         <f>COUNTIF(issues!$C:$C,assignees!A12)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" t="s">
-        <v>47</v>
       </c>
       <c r="C13">
         <f>COUNTIF(issues!$C:$C,assignees!A13)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14">
         <f>COUNTIF(issues!$C:$C,assignees!A14)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <f>COUNTIF(issues!$C:$C,assignees!A15)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <f>COUNTIF(issues!$C:$C,assignees!A16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17">
         <f>COUNTIF(issues!$C:$C,assignees!A17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1563,10 +1536,10 @@
       </c>
       <c r="C18">
         <f>COUNTIF(issues!$C:$C,assignees!A18)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1578,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1602,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -1614,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1626,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1638,44 +1611,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25">
         <f>COUNTIF(issues!$C:$C,assignees!A25)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
         <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>69</v>
       </c>
       <c r="C26">
         <f>COUNTIF(issues!$C:$C,assignees!A26)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27">
         <f>COUNTIF(issues!$C:$C,assignees!A27)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(issues!$C:$C,assignees!A28)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C12">
+  <sortState ref="A3:C12">
     <sortCondition descending="1" ref="C3:C23"/>
   </sortState>
   <conditionalFormatting sqref="C1:C1048576">

--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
@@ -16,7 +16,7 @@
     <sheet name="assignees" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$C$1:$C$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">issues!$C$1:$C$29</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>Title</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Manual Testing ORNL SANS</t>
-  </si>
-  <si>
-    <t>Manual Testing DynamicPDF</t>
   </si>
   <si>
     <t>Manual Testing Step scan analysis</t>
@@ -1109,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1158,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1192,6 +1189,9 @@
       <c r="A8" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
@@ -1201,28 +1201,21 @@
         <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5"/>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1234,11 +1227,10 @@
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.3">
@@ -1279,9 +1271,6 @@
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1296,13 +1285,13 @@
           <x14:formula1>
             <xm:f>assignees!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:C30</xm:sqref>
+          <xm:sqref>C10:C29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>assignees!$A$2:$A$28</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C10</xm:sqref>
+          <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1404,7 +1393,7 @@
       </c>
       <c r="C7">
         <f>COUNTIF(issues!$C:$C,assignees!A7)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1613,10 +1602,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C25">
         <f>COUNTIF(issues!$C:$C,assignees!A25)</f>
@@ -1625,10 +1614,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" t="s">
         <v>67</v>
-      </c>
-      <c r="B26" t="s">
-        <v>68</v>
       </c>
       <c r="C26">
         <f>COUNTIF(issues!$C:$C,assignees!A26)</f>
@@ -1637,10 +1626,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27">
         <f>COUNTIF(issues!$C:$C,assignees!A27)</f>
@@ -1649,10 +1638,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" t="s">
         <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>72</v>
       </c>
       <c r="C28">
         <f>COUNTIF(issues!$C:$C,assignees!A28)</f>

--- a/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
+++ b/Project-Management/Tools/RoadmapUpdate/issue_template_Non_ISIS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="39876" yWindow="4944" windowWidth="19476" windowHeight="23496"/>
+    <workbookView xWindow="39876" yWindow="4944" windowWidth="19476" windowHeight="23496" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="issues" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>Title</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>Jose Borreguero</t>
-  </si>
-  <si>
-    <t>martyngigg</t>
-  </si>
-  <si>
-    <t>Martyn Gigg</t>
   </si>
   <si>
     <t>mdoucet</t>
@@ -139,12 +133,6 @@
     <t>size</t>
   </si>
   <si>
-    <t>Pasarus</t>
-  </si>
-  <si>
-    <t>Sam Jones</t>
-  </si>
-  <si>
     <t>robertapplin</t>
   </si>
   <si>
@@ -154,55 +142,13 @@
     <t>No Assigned</t>
   </si>
   <si>
-    <t>Harrietbrown</t>
-  </si>
-  <si>
-    <t>Harriet Brown</t>
-  </si>
-  <si>
-    <t>DanielMurphy22</t>
-  </si>
-  <si>
-    <t>DannyHindson</t>
-  </si>
-  <si>
     <t>RichardWaiteSTFC</t>
   </si>
   <si>
-    <t>StephenSmith25</t>
-  </si>
-  <si>
-    <t>DavidFair</t>
-  </si>
-  <si>
-    <t>David Fair</t>
-  </si>
-  <si>
-    <t>Stephen Smith</t>
-  </si>
-  <si>
-    <t>Daniel Murphy</t>
-  </si>
-  <si>
     <t>Richard Waite</t>
   </si>
   <si>
-    <t>Danny Hindson</t>
-  </si>
-  <si>
     <t>Anthony Lim</t>
-  </si>
-  <si>
-    <t>tolu28-coder</t>
-  </si>
-  <si>
-    <t>Toluwalase Agoro</t>
-  </si>
-  <si>
-    <t>joseph-torsney</t>
-  </si>
-  <si>
-    <t>Joseph Torsney</t>
   </si>
   <si>
     <t>Manual Testing Live Data ORNL</t>
@@ -1108,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1131,80 +1077,80 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1283,13 +1229,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>assignees!$A$2:$A$27</xm:f>
+            <xm:f>assignees!$A$2:$A$18</xm:f>
           </x14:formula1>
           <xm:sqref>C10:C29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>assignees!$A$2:$A$28</xm:f>
+            <xm:f>assignees!$A$2:$A$19</xm:f>
           </x14:formula1>
           <xm:sqref>C2:C9</xm:sqref>
         </x14:dataValidation>
@@ -1301,10 +1247,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1315,21 +1261,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <f>COUNTIF(issues!$C:$C,assignees!A2)</f>
@@ -1338,10 +1284,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <f>COUNTIF(issues!$C:$C,assignees!A3)</f>
@@ -1350,22 +1296,22 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <f>COUNTIF(issues!$C:$C,assignees!A4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <f>COUNTIF(issues!$C:$C,assignees!A5)</f>
@@ -1374,10 +1320,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <f>COUNTIF(issues!$C:$C,assignees!A6)</f>
@@ -1386,22 +1332,22 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <f>COUNTIF(issues!$C:$C,assignees!A7)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <f>COUNTIF(issues!$C:$C,assignees!A8)</f>
@@ -1410,10 +1356,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <f>COUNTIF(issues!$C:$C,assignees!A9)</f>
@@ -1422,10 +1368,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <f>COUNTIF(issues!$C:$C,assignees!A10)</f>
@@ -1434,10 +1380,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <f>COUNTIF(issues!$C:$C,assignees!A11)</f>
@@ -1446,10 +1392,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <f>COUNTIF(issues!$C:$C,assignees!A12)</f>
@@ -1458,10 +1404,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <f>COUNTIF(issues!$C:$C,assignees!A13)</f>
@@ -1470,10 +1416,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <f>COUNTIF(issues!$C:$C,assignees!A14)</f>
@@ -1482,10 +1428,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C15">
         <f>COUNTIF(issues!$C:$C,assignees!A15)</f>
@@ -1494,10 +1440,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <f>COUNTIF(issues!$C:$C,assignees!A16)</f>
@@ -1506,10 +1452,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <f>COUNTIF(issues!$C:$C,assignees!A17)</f>
@@ -1518,10 +1464,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C18">
         <f>COUNTIF(issues!$C:$C,assignees!A18)</f>
@@ -1530,121 +1476,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="C19">
         <f>COUNTIF(issues!$C:$C,assignees!A19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <f>COUNTIF(issues!$C:$C,assignees!A20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21">
-        <f>COUNTIF(issues!$C:$C,assignees!A21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22">
-        <f>COUNTIF(issues!$C:$C,assignees!A22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23">
-        <f>COUNTIF(issues!$C:$C,assignees!A23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <f>COUNTIF(issues!$C:$C,assignees!A24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B25" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25">
-        <f>COUNTIF(issues!$C:$C,assignees!A25)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>66</v>
-      </c>
-      <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26">
-        <f>COUNTIF(issues!$C:$C,assignees!A26)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27">
-        <f>COUNTIF(issues!$C:$C,assignees!A27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28">
-        <f>COUNTIF(issues!$C:$C,assignees!A28)</f>
         <v>1</v>
       </c>
     </row>
